--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABC/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABC/10/seed2/result_data_RandomForest.xlsx
@@ -479,13 +479,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.99090000000001</v>
+        <v>-21.9413</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.93309999999999</v>
+        <v>-11.8687</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.29469999999998</v>
+        <v>-20.17409999999998</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.30369999999997</v>
+        <v>-20.29349999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -842,7 +842,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-13.2309</v>
+        <v>-12.77309999999999</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.68979999999999</v>
+        <v>-21.76590000000001</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.767400000000002</v>
+        <v>5.901400000000003</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.241700000000001</v>
+        <v>5.331199999999999</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>9.77910000000001</v>
+        <v>9.804800000000006</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1247,7 +1247,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.378900000000003</v>
+        <v>5.442200000000003</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.325599999999998</v>
+        <v>5.455999999999997</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.298000000000002</v>
+        <v>5.348700000000001</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.8692</v>
+        <v>-21.89889999999999</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.814099999999997</v>
+        <v>5.874399999999997</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>5.002399999999998</v>
+        <v>4.929799999999998</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1397,13 +1397,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.11590000000001</v>
+        <v>-22.03080000000001</v>
       </c>
       <c r="B57" t="n">
-        <v>5.482300000000002</v>
+        <v>5.162900000000002</v>
       </c>
       <c r="C57" t="n">
-        <v>-12.50959999999999</v>
+        <v>-12.35459999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.29770000000001</v>
+        <v>-22.2938</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1471,7 +1471,7 @@
         <v>8.33</v>
       </c>
       <c r="C61" t="n">
-        <v>-13.00279999999999</v>
+        <v>-13.60129999999999</v>
       </c>
       <c r="D61" t="n">
         <v>-7.97</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.62829999999999</v>
+        <v>-21.58899999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1624,7 +1624,7 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.8777</v>
+        <v>-11.5894</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.9453</v>
+        <v>8.524299999999998</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.62020000000001</v>
+        <v>-20.54420000000001</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.8969</v>
+        <v>-21.92219999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1896,7 +1896,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.42099999999999</v>
+        <v>-13.0989</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1944,7 +1944,7 @@
         <v>-21.45</v>
       </c>
       <c r="B89" t="n">
-        <v>5.158999999999995</v>
+        <v>5.129499999999994</v>
       </c>
       <c r="C89" t="n">
         <v>-10.11</v>
@@ -1961,7 +1961,7 @@
         <v>-21.82</v>
       </c>
       <c r="B90" t="n">
-        <v>5.597600000000003</v>
+        <v>5.702200000000001</v>
       </c>
       <c r="C90" t="n">
         <v>-12.06</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.27909999999999</v>
+        <v>-21.55560000000001</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-11.58989999999999</v>
+        <v>-11.8981</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.90619999999999</v>
+        <v>-12.39569999999999</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.1569</v>
+        <v>-13.3729</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
